--- a/燃料油/eta/新加坡高低硫燃料油价差_月度数据.xlsx
+++ b/燃料油/eta/新加坡高低硫燃料油价差_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>64.8</v>
+        <v>94.59999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.40000000000001</v>
+        <v>66.7</v>
       </c>
       <c r="C3" t="n">
-        <v>66.09999999999999</v>
+        <v>68.59999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>75.3</v>
       </c>
       <c r="C4" t="n">
-        <v>75.5</v>
+        <v>75.40000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -653,7 +653,7 @@
         <v>127.1</v>
       </c>
       <c r="C17" t="n">
-        <v>127.1</v>
+        <v>127.2</v>
       </c>
     </row>
     <row r="18">
